--- a/DSLR_Cameras/DSLR_sample_cleaned.xlsx
+++ b/DSLR_Cameras/DSLR_sample_cleaned.xlsx
@@ -13555,7 +13555,7 @@
     <t>252</t>
   </si>
   <si>
-    <t>DSLR_Cameras</t>
+    <t>DSLR_Camera</t>
   </si>
 </sst>
 </file>
